--- a/report.xlsx
+++ b/report.xlsx
@@ -1630,13 +1630,41 @@
           <t>Яндекс: мобильное приложение</t>
         </is>
       </c>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="I5" s="13" t="n"/>
       <c r="J5" s="13" t="n"/>
       <c r="K5" s="13" t="n"/>
@@ -1649,13 +1677,41 @@
           <t>Яндекс.Браузер</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="14" t="n"/>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F6" s="14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G6" s="14" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H6" s="14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="I6" s="14" t="n"/>
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="14" t="n"/>
@@ -1668,13 +1724,41 @@
           <t>Chrome Mobile</t>
         </is>
       </c>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="I7" s="13" t="n"/>
       <c r="J7" s="13" t="n"/>
       <c r="K7" s="13" t="n"/>
@@ -1687,13 +1771,41 @@
           <t>Google Chrome</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E8" s="14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F8" s="14" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G8" s="14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H8" s="14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="I8" s="14" t="n"/>
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="14" t="n"/>
@@ -1706,13 +1818,41 @@
           <t>Android Browser</t>
         </is>
       </c>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="I9" s="13" t="n"/>
       <c r="J9" s="13" t="n"/>
       <c r="K9" s="13" t="n"/>
@@ -1725,13 +1865,41 @@
           <t>Mobile Safari</t>
         </is>
       </c>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="14" t="n"/>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="I10" s="14" t="n"/>
       <c r="J10" s="14" t="n"/>
       <c r="K10" s="14" t="n"/>
@@ -1744,13 +1912,41 @@
           <t>Opera</t>
         </is>
       </c>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I11" s="13" t="n"/>
       <c r="J11" s="13" t="n"/>
       <c r="K11" s="13" t="n"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -2117,13 +2117,41 @@
           <t>Кабель ZMI USB - microUSB (AL600) 1 м черный</t>
         </is>
       </c>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H19" s="13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="I19" s="13" t="n"/>
       <c r="J19" s="13" t="n"/>
       <c r="K19" s="13" t="n"/>
@@ -2136,13 +2164,41 @@
           <t>ArtSpace Набор обложек для дневников и тетрадей 210х350 мм</t>
         </is>
       </c>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C20" s="14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E20" s="14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F20" s="14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G20" s="14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H20" s="14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="I20" s="14" t="n"/>
       <c r="J20" s="14" t="n"/>
       <c r="K20" s="14" t="n"/>
@@ -2155,13 +2211,41 @@
           <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11</t>
         </is>
       </c>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
+      <c r="B21" s="13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E21" s="13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H21" s="13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="I21" s="13" t="n"/>
       <c r="J21" s="13" t="n"/>
       <c r="K21" s="13" t="n"/>
@@ -2174,13 +2258,41 @@
           <t>Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
         </is>
       </c>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
+      <c r="B22" s="14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" s="14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="I22" s="14" t="n"/>
       <c r="J22" s="14" t="n"/>
       <c r="K22" s="14" t="n"/>
@@ -2193,13 +2305,41 @@
           <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный</t>
         </is>
       </c>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
+      <c r="B23" s="13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H23" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="I23" s="13" t="n"/>
       <c r="J23" s="13" t="n"/>
       <c r="K23" s="13" t="n"/>
@@ -2212,13 +2352,41 @@
           <t>ArtSpace Обложки для учебников 23</t>
         </is>
       </c>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
+      <c r="B24" s="14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C24" s="14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E24" s="14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F24" s="14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G24" s="14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H24" s="14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="I24" s="14" t="n"/>
       <c r="J24" s="14" t="n"/>
       <c r="K24" s="14" t="n"/>
@@ -2231,13 +2399,41 @@
           <t xml:space="preserve">Прозрачный силиконовый чехол для iPhone 6 </t>
         </is>
       </c>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
+      <c r="B25" s="13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D25" s="13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H25" s="13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="I25" s="13" t="n"/>
       <c r="J25" s="13" t="n"/>
       <c r="K25" s="13" t="n"/>
